--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -490,23 +490,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="B7 B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="44.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Case</t>
   </si>
@@ -36,9 +36,6 @@
     <t>PurposeOfPayment_Value</t>
   </si>
   <si>
-    <t>02197900643103 | MUHAMMAD KHALID | BANK ROAD, MARDAN</t>
-  </si>
-  <si>
     <t>HBL / Konnect</t>
   </si>
   <si>
@@ -145,6 +142,27 @@
   </si>
   <si>
     <t>When valid Bene and Schedule Dates are provided</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>to_bank_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>2197900643103</t>
   </si>
 </sst>
 </file>
@@ -488,17 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -521,23 +539,26 @@
     <col min="23" max="23" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="86.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="167.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -546,90 +567,99 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -638,28 +668,37 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
-        <v>24</v>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule_Beneficiary.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule_Beneficiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="129">
   <si>
     <t>Case</t>
   </si>
@@ -163,6 +163,249 @@
   </si>
   <si>
     <t>2197900643103</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL(Daily)</t>
+  </si>
+  <si>
+    <t>01907981051403 | KHALIL AHMAD | MAIN BRANCH,MIRPUR A</t>
+  </si>
+  <si>
+    <t>15547900667001</t>
+  </si>
+  <si>
+    <t>Tax payment</t>
+  </si>
+  <si>
+    <t>BILAL Ahmad</t>
+  </si>
+  <si>
+    <t>00000000000</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL(Weekly)</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL(Fortnightly)</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL(Monthly)</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL(Quarterly)</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction own account (Daily)</t>
+  </si>
+  <si>
+    <t>00476001933901 | KASHIF AHMED | HBL ANNEXE.</t>
+  </si>
+  <si>
+    <t>00477948679801</t>
+  </si>
+  <si>
+    <t>KASHIF AHMED</t>
+  </si>
+  <si>
+    <t>03333237395</t>
+  </si>
+  <si>
+    <t>KAHMEDKHAN4@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction own account(Weekly)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction own account(Fortnightly)</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction own account(Monthly)</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction own account(Quarterly)</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT(Daily)</t>
+  </si>
+  <si>
+    <t>14660017195901 |  M YOUNAS IQBAL | PUNJAB MEDICAL COLLE</t>
+  </si>
+  <si>
+    <t>Meezan Bank Limited</t>
+  </si>
+  <si>
+    <t>995101043556098</t>
+  </si>
+  <si>
+    <t>daniyal olive</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene ofIBFT(Weekly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT(Fortnightly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT(Monthly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT(Quarterly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT via.IBAN(Daily)</t>
+  </si>
+  <si>
+    <t>United Bank Limited</t>
+  </si>
+  <si>
+    <t>PK95UNIL0308125600740993</t>
+  </si>
+  <si>
+    <t>MicrofinanceIBFTPSDYIBAN</t>
+  </si>
+  <si>
+    <t>0347-2709133</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene ofIBFT via.IBAN(Weekly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT via.IBAN(Fortnightly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT via.IBAN(Monthly)</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of IBFT via.IBAN(Quarterly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Schedule the Send Money transaction with Existing Bene of other HBL(PSD=0) </t>
+  </si>
+  <si>
+    <t>07867902397801 |  ZUBAIR KHAN | HBL PLAZA BR,KARACHI</t>
+  </si>
+  <si>
+    <t>07867915841501</t>
+  </si>
+  <si>
+    <t>qaseem HBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Schedule the Send Money transaction with Existing Bene of other HBL(IVR=0) </t>
+  </si>
+  <si>
+    <t>04037900822003 | ANAM IQBAL | MULTAN NISHTER MED.</t>
+  </si>
+  <si>
+    <t>JZHVVN AZRWR</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL (incorrect transaction password</t>
+  </si>
+  <si>
+    <t>pakistan021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Schedule the Send Money transaction with Existing Bene of other HBL (incorrect purpose of account) </t>
+  </si>
+  <si>
+    <t>23677000049803 | RIAZ AHMAD | COLLEGE CHOWK BRANCH</t>
+  </si>
+  <si>
+    <t>09107901967403</t>
+  </si>
+  <si>
+    <t>qaqa</t>
+  </si>
+  <si>
+    <t>khan zaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Schedule the Send Money transaction with Existing Bene of other HBL (From date lessr than to Date) </t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Schedule the Send Money transaction with Existing Bene of other HBL (negative amount) </t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money transaction with Existing Bene of other HBL (Transaction password lock)</t>
+  </si>
+  <si>
+    <t>23057904586603 | SALEEM AHMED | COMSATS Branch,</t>
+  </si>
+  <si>
+    <t>23057905266803</t>
+  </si>
+  <si>
+    <t>Afzaal</t>
   </si>
 </sst>
 </file>
@@ -219,12 +462,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +801,7 @@
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -634,7 +884,7 @@
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -661,9 +911,15 @@
       <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -698,6 +954,2247 @@
         <v>45</v>
       </c>
       <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23">
+        <v>25002</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28">
+        <v>-2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V29" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s">
         <v>46</v>
       </c>
     </row>
